--- a/output/2023/sector_totals_2023.xlsx
+++ b/output/2023/sector_totals_2023.xlsx
@@ -503,16 +503,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>610.0928791606467</v>
+        <v>610.0928791606466</v>
       </c>
       <c r="E3" t="n">
         <v>352.6222468608576</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>70.69577479034739</v>
       </c>
       <c r="G3" t="n">
-        <v>4.094720970484223</v>
+        <v>4.094720970484224</v>
       </c>
     </row>
     <row r="4">
@@ -834,7 +834,7 @@
         <v>6778.413801097759</v>
       </c>
       <c r="F16" t="n">
-        <v>1490.873887352559</v>
+        <v>1561.569662142907</v>
       </c>
       <c r="G16" t="n">
         <v>31.53947197606009</v>

--- a/output/2023/sector_totals_2023.xlsx
+++ b/output/2023/sector_totals_2023.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>94.41249001862033</v>
       </c>
       <c r="C9" t="n">
         <v>94.41249001862033</v>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>46.94126537280198</v>
       </c>
       <c r="C10" t="n">
         <v>46.94126537280198</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>329.2200721866216</v>
       </c>
       <c r="C11" t="n">
         <v>329.2200721866216</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5468.878858741709</v>
+        <v>5939.452686319753</v>
       </c>
       <c r="C16" t="n">
         <v>545.2810410325812</v>
